--- a/grupos.xlsx
+++ b/grupos.xlsx
@@ -342,18 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -370,6 +358,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -700,100 +700,100 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="22"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="12"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="11" spans="1:5">
@@ -830,14 +830,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C6:C7"/>
@@ -850,6 +842,14 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
